--- a/data/trans_dic/P23_10_R-Urba-trans_dic.xlsx
+++ b/data/trans_dic/P23_10_R-Urba-trans_dic.xlsx
@@ -7,7 +7,8 @@
     <workbookView visibility="visible" minimized="0" showHorizontalScroll="1" showVerticalScroll="1" showSheetTabs="1" tabRatio="600" firstSheet="0" activeTab="0" autoFilterDateGrouping="1"/>
   </bookViews>
   <sheets>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Transversal dicotómica" sheetId="1" state="visible" r:id="rId1"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Porcentajes" sheetId="1" state="visible" r:id="rId1"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Totales" sheetId="2" state="visible" r:id="rId2"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -504,7 +505,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:K11"/>
+  <dimension ref="A1:N12"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <pane xSplit="2" ySplit="3" topLeftCell="C4" activePane="bottomRight" state="frozen"/>
@@ -526,12 +527,15 @@
     <col width="14" customWidth="1" min="9" max="9"/>
     <col width="14" customWidth="1" min="10" max="10"/>
     <col width="14" customWidth="1" min="11" max="11"/>
+    <col width="14" customWidth="1" min="12" max="12"/>
+    <col width="14" customWidth="1" min="13" max="13"/>
+    <col width="14" customWidth="1" min="14" max="14"/>
   </cols>
   <sheetData>
     <row r="1">
       <c r="A1" s="1" t="inlineStr">
         <is>
-          <t>Población que recibe menos o muchos menos consejos útiles de los que desea cuando le ocurre algún acontecimiento importante en su vida</t>
+          <t>Población que recibe menos o muchos menos consejos útiles de los que desea cuando le ocurre algún acontecimiento importante en su vida (tasa de respuesta: 99,2%)</t>
         </is>
       </c>
       <c r="B1" s="2" t="n"/>
@@ -542,20 +546,23 @@
       </c>
       <c r="D1" s="3" t="n"/>
       <c r="E1" s="3" t="n"/>
-      <c r="F1" s="3" t="inlineStr">
+      <c r="F1" s="3" t="n"/>
+      <c r="G1" s="3" t="inlineStr">
         <is>
           <t>Mujer</t>
         </is>
       </c>
-      <c r="G1" s="3" t="n"/>
       <c r="H1" s="3" t="n"/>
-      <c r="I1" s="3" t="inlineStr">
+      <c r="I1" s="3" t="n"/>
+      <c r="J1" s="3" t="n"/>
+      <c r="K1" s="3" t="inlineStr">
         <is>
           <t>Total</t>
         </is>
       </c>
-      <c r="J1" s="3" t="n"/>
-      <c r="K1" s="3" t="n"/>
+      <c r="L1" s="3" t="n"/>
+      <c r="M1" s="3" t="n"/>
+      <c r="N1" s="3" t="n"/>
     </row>
     <row r="2">
       <c r="A2" s="4" t="n"/>
@@ -577,32 +584,47 @@
       </c>
       <c r="F2" s="3" t="inlineStr">
         <is>
+          <t>M5</t>
+        </is>
+      </c>
+      <c r="G2" s="3" t="inlineStr">
+        <is>
           <t>M2</t>
         </is>
       </c>
-      <c r="G2" s="3" t="inlineStr">
+      <c r="H2" s="3" t="inlineStr">
         <is>
           <t>M3</t>
         </is>
       </c>
-      <c r="H2" s="3" t="inlineStr">
+      <c r="I2" s="3" t="inlineStr">
         <is>
           <t>M4</t>
         </is>
       </c>
-      <c r="I2" s="3" t="inlineStr">
+      <c r="J2" s="3" t="inlineStr">
+        <is>
+          <t>M5</t>
+        </is>
+      </c>
+      <c r="K2" s="3" t="inlineStr">
         <is>
           <t>M2</t>
         </is>
       </c>
-      <c r="J2" s="3" t="inlineStr">
+      <c r="L2" s="3" t="inlineStr">
         <is>
           <t>M3</t>
         </is>
       </c>
-      <c r="K2" s="3" t="inlineStr">
+      <c r="M2" s="3" t="inlineStr">
         <is>
           <t>M4</t>
+        </is>
+      </c>
+      <c r="N2" s="3" t="inlineStr">
+        <is>
+          <t>M5</t>
         </is>
       </c>
     </row>
@@ -618,6 +640,9 @@
       <c r="I3" s="2" t="n"/>
       <c r="J3" s="2" t="n"/>
       <c r="K3" s="2" t="n"/>
+      <c r="L3" s="2" t="n"/>
+      <c r="M3" s="2" t="n"/>
+      <c r="N3" s="2" t="n"/>
     </row>
     <row r="4">
       <c r="A4" s="1" t="inlineStr">
@@ -632,47 +657,62 @@
       </c>
       <c r="C4" s="2" t="inlineStr">
         <is>
-          <t>7,38%</t>
+          <t>7,19%</t>
         </is>
       </c>
       <c r="D4" s="2" t="inlineStr">
         <is>
-          <t>8,89%</t>
+          <t>9,31%</t>
         </is>
       </c>
       <c r="E4" s="2" t="inlineStr">
         <is>
-          <t>5,19%</t>
+          <t>4,81%</t>
         </is>
       </c>
       <c r="F4" s="2" t="inlineStr">
         <is>
-          <t>6,66%</t>
+          <t>3,56%</t>
         </is>
       </c>
       <c r="G4" s="2" t="inlineStr">
         <is>
-          <t>4,85%</t>
+          <t>7,88%</t>
         </is>
       </c>
       <c r="H4" s="2" t="inlineStr">
         <is>
-          <t>3,27%</t>
+          <t>5,03%</t>
         </is>
       </c>
       <c r="I4" s="2" t="inlineStr">
         <is>
-          <t>6,99%</t>
+          <t>3,65%</t>
         </is>
       </c>
       <c r="J4" s="2" t="inlineStr">
         <is>
-          <t>6,73%</t>
+          <t>5,14%</t>
         </is>
       </c>
       <c r="K4" s="2" t="inlineStr">
         <is>
-          <t>4,18%</t>
+          <t>7,56%</t>
+        </is>
+      </c>
+      <c r="L4" s="2" t="inlineStr">
+        <is>
+          <t>7,02%</t>
+        </is>
+      </c>
+      <c r="M4" s="2" t="inlineStr">
+        <is>
+          <t>4,21%</t>
+        </is>
+      </c>
+      <c r="N4" s="2" t="inlineStr">
+        <is>
+          <t>4,39%</t>
         </is>
       </c>
     </row>
@@ -685,47 +725,62 @@
       </c>
       <c r="C5" s="2" t="inlineStr">
         <is>
-          <t>4,16; 15,82</t>
+          <t>3,79; 12,17</t>
         </is>
       </c>
       <c r="D5" s="2" t="inlineStr">
         <is>
-          <t>5,28; 15,41</t>
+          <t>5,64; 14,78</t>
         </is>
       </c>
       <c r="E5" s="2" t="inlineStr">
         <is>
-          <t>3,11; 8,11</t>
+          <t>2,26; 9,05</t>
         </is>
       </c>
       <c r="F5" s="2" t="inlineStr">
         <is>
-          <t>4,58; 9,89</t>
+          <t>1,41; 7,28</t>
         </is>
       </c>
       <c r="G5" s="2" t="inlineStr">
         <is>
-          <t>2,89; 7,52</t>
+          <t>4,68; 12,48</t>
         </is>
       </c>
       <c r="H5" s="2" t="inlineStr">
         <is>
-          <t>1,72; 5,4</t>
+          <t>2,67; 8,96</t>
         </is>
       </c>
       <c r="I5" s="2" t="inlineStr">
         <is>
-          <t>5,17; 10,9</t>
+          <t>1,59; 6,88</t>
         </is>
       </c>
       <c r="J5" s="2" t="inlineStr">
         <is>
-          <t>4,66; 9,93</t>
+          <t>2,38; 10,73</t>
         </is>
       </c>
       <c r="K5" s="2" t="inlineStr">
         <is>
-          <t>2,79; 5,76</t>
+          <t>4,96; 10,61</t>
+        </is>
+      </c>
+      <c r="L5" s="2" t="inlineStr">
+        <is>
+          <t>4,68; 9,85</t>
+        </is>
+      </c>
+      <c r="M5" s="2" t="inlineStr">
+        <is>
+          <t>2,41; 6,6</t>
+        </is>
+      </c>
+      <c r="N5" s="2" t="inlineStr">
+        <is>
+          <t>2,58; 7,48</t>
         </is>
       </c>
     </row>
@@ -742,47 +797,62 @@
       </c>
       <c r="C6" s="2" t="inlineStr">
         <is>
-          <t>10,43%</t>
+          <t>8,59%</t>
         </is>
       </c>
       <c r="D6" s="2" t="inlineStr">
         <is>
-          <t>3,56%</t>
+          <t>4,3%</t>
         </is>
       </c>
       <c r="E6" s="2" t="inlineStr">
         <is>
-          <t>5,67%</t>
+          <t>7,63%</t>
         </is>
       </c>
       <c r="F6" s="2" t="inlineStr">
         <is>
-          <t>10,91%</t>
+          <t>4,77%</t>
         </is>
       </c>
       <c r="G6" s="2" t="inlineStr">
         <is>
-          <t>2,53%</t>
+          <t>8,49%</t>
         </is>
       </c>
       <c r="H6" s="2" t="inlineStr">
         <is>
-          <t>5,51%</t>
+          <t>3,29%</t>
         </is>
       </c>
       <c r="I6" s="2" t="inlineStr">
         <is>
-          <t>10,69%</t>
+          <t>5,92%</t>
         </is>
       </c>
       <c r="J6" s="2" t="inlineStr">
         <is>
-          <t>3,04%</t>
+          <t>6,33%</t>
         </is>
       </c>
       <c r="K6" s="2" t="inlineStr">
         <is>
-          <t>5,59%</t>
+          <t>8,53%</t>
+        </is>
+      </c>
+      <c r="L6" s="2" t="inlineStr">
+        <is>
+          <t>3,79%</t>
+        </is>
+      </c>
+      <c r="M6" s="2" t="inlineStr">
+        <is>
+          <t>6,76%</t>
+        </is>
+      </c>
+      <c r="N6" s="2" t="inlineStr">
+        <is>
+          <t>5,57%</t>
         </is>
       </c>
     </row>
@@ -795,47 +865,62 @@
       </c>
       <c r="C7" s="2" t="inlineStr">
         <is>
-          <t>5,68; 24,24</t>
+          <t>4,73; 14,34</t>
         </is>
       </c>
       <c r="D7" s="2" t="inlineStr">
         <is>
-          <t>1,54; 6,46</t>
+          <t>1,51; 8,84</t>
         </is>
       </c>
       <c r="E7" s="2" t="inlineStr">
         <is>
-          <t>3,37; 9,21</t>
+          <t>3,97; 13,76</t>
         </is>
       </c>
       <c r="F7" s="2" t="inlineStr">
         <is>
-          <t>7,26; 15,84</t>
+          <t>1,89; 9,88</t>
         </is>
       </c>
       <c r="G7" s="2" t="inlineStr">
         <is>
-          <t>1,14; 4,85</t>
+          <t>4,61; 13,97</t>
         </is>
       </c>
       <c r="H7" s="2" t="inlineStr">
         <is>
-          <t>3,1; 8,63</t>
+          <t>1,11; 6,72</t>
         </is>
       </c>
       <c r="I7" s="2" t="inlineStr">
         <is>
-          <t>7,72; 17,22</t>
+          <t>2,66; 10,25</t>
         </is>
       </c>
       <c r="J7" s="2" t="inlineStr">
         <is>
-          <t>1,83; 4,98</t>
+          <t>2,92; 12,55</t>
         </is>
       </c>
       <c r="K7" s="2" t="inlineStr">
         <is>
-          <t>3,77; 7,85</t>
+          <t>5,59; 12,32</t>
+        </is>
+      </c>
+      <c r="L7" s="2" t="inlineStr">
+        <is>
+          <t>2,08; 6,39</t>
+        </is>
+      </c>
+      <c r="M7" s="2" t="inlineStr">
+        <is>
+          <t>3,99; 10,03</t>
+        </is>
+      </c>
+      <c r="N7" s="2" t="inlineStr">
+        <is>
+          <t>3,1; 9,34</t>
         </is>
       </c>
     </row>
@@ -852,47 +937,62 @@
       </c>
       <c r="C8" s="2" t="inlineStr">
         <is>
-          <t>5,61%</t>
+          <t>7,13%</t>
         </is>
       </c>
       <c r="D8" s="2" t="inlineStr">
         <is>
-          <t>9,08%</t>
+          <t>21,34%</t>
         </is>
       </c>
       <c r="E8" s="2" t="inlineStr">
         <is>
-          <t>9,29%</t>
+          <t>13,43%</t>
         </is>
       </c>
       <c r="F8" s="2" t="inlineStr">
         <is>
-          <t>1,29%</t>
+          <t>2,8%</t>
         </is>
       </c>
       <c r="G8" s="2" t="inlineStr">
         <is>
-          <t>6,75%</t>
+          <t>2,45%</t>
         </is>
       </c>
       <c r="H8" s="2" t="inlineStr">
         <is>
-          <t>7,38%</t>
+          <t>6,55%</t>
         </is>
       </c>
       <c r="I8" s="2" t="inlineStr">
         <is>
-          <t>3,53%</t>
+          <t>6,41%</t>
         </is>
       </c>
       <c r="J8" s="2" t="inlineStr">
         <is>
-          <t>7,94%</t>
+          <t>8,4%</t>
         </is>
       </c>
       <c r="K8" s="2" t="inlineStr">
         <is>
-          <t>8,39%</t>
+          <t>4,85%</t>
+        </is>
+      </c>
+      <c r="L8" s="2" t="inlineStr">
+        <is>
+          <t>13,94%</t>
+        </is>
+      </c>
+      <c r="M8" s="2" t="inlineStr">
+        <is>
+          <t>9,91%</t>
+        </is>
+      </c>
+      <c r="N8" s="2" t="inlineStr">
+        <is>
+          <t>5,54%</t>
         </is>
       </c>
     </row>
@@ -905,47 +1005,62 @@
       </c>
       <c r="C9" s="2" t="inlineStr">
         <is>
-          <t>1,69; 15,63</t>
+          <t>0,0; 22,92</t>
         </is>
       </c>
       <c r="D9" s="2" t="inlineStr">
         <is>
-          <t>0,0; 39,94</t>
+          <t>0,0; 63,02</t>
         </is>
       </c>
       <c r="E9" s="2" t="inlineStr">
         <is>
-          <t>3,21; 22,84</t>
+          <t>2,24; 42,31</t>
         </is>
       </c>
       <c r="F9" s="2" t="inlineStr">
         <is>
-          <t>0,0; 6,75</t>
+          <t>0,0; 14,71</t>
         </is>
       </c>
       <c r="G9" s="2" t="inlineStr">
         <is>
-          <t>1,45; 16,0</t>
+          <t>0,0; 13,04</t>
         </is>
       </c>
       <c r="H9" s="2" t="inlineStr">
         <is>
-          <t>1,9; 18,44</t>
+          <t>0,0; 22,74</t>
         </is>
       </c>
       <c r="I9" s="2" t="inlineStr">
         <is>
-          <t>0,95; 8,33</t>
+          <t>0,0; 20,13</t>
         </is>
       </c>
       <c r="J9" s="2" t="inlineStr">
         <is>
-          <t>2,11; 23,95</t>
+          <t>0,0; 26,87</t>
         </is>
       </c>
       <c r="K9" s="2" t="inlineStr">
         <is>
-          <t>4,21; 15,91</t>
+          <t>1,19; 14,12</t>
+        </is>
+      </c>
+      <c r="L9" s="2" t="inlineStr">
+        <is>
+          <t>2,16; 40,42</t>
+        </is>
+      </c>
+      <c r="M9" s="2" t="inlineStr">
+        <is>
+          <t>3,24; 23,36</t>
+        </is>
+      </c>
+      <c r="N9" s="2" t="inlineStr">
+        <is>
+          <t>1,4; 15,94</t>
         </is>
       </c>
     </row>
@@ -962,47 +1077,62 @@
       </c>
       <c r="C10" s="2" t="inlineStr">
         <is>
-          <t>8,41%</t>
+          <t>7,75%</t>
         </is>
       </c>
       <c r="D10" s="2" t="inlineStr">
         <is>
-          <t>6,71%</t>
+          <t>8,48%</t>
         </is>
       </c>
       <c r="E10" s="2" t="inlineStr">
         <is>
-          <t>5,89%</t>
+          <t>6,86%</t>
         </is>
       </c>
       <c r="F10" s="2" t="inlineStr">
         <is>
-          <t>7,87%</t>
+          <t>3,96%</t>
         </is>
       </c>
       <c r="G10" s="2" t="inlineStr">
         <is>
-          <t>4,13%</t>
+          <t>7,62%</t>
         </is>
       </c>
       <c r="H10" s="2" t="inlineStr">
         <is>
-          <t>4,57%</t>
+          <t>4,48%</t>
         </is>
       </c>
       <c r="I10" s="2" t="inlineStr">
         <is>
-          <t>8,13%</t>
+          <t>4,84%</t>
         </is>
       </c>
       <c r="J10" s="2" t="inlineStr">
         <is>
-          <t>5,37%</t>
+          <t>5,95%</t>
         </is>
       </c>
       <c r="K10" s="2" t="inlineStr">
         <is>
-          <t>5,22%</t>
+          <t>7,68%</t>
+        </is>
+      </c>
+      <c r="L10" s="2" t="inlineStr">
+        <is>
+          <t>6,39%</t>
+        </is>
+      </c>
+      <c r="M10" s="2" t="inlineStr">
+        <is>
+          <t>5,83%</t>
+        </is>
+      </c>
+      <c r="N10" s="2" t="inlineStr">
+        <is>
+          <t>4,98%</t>
         </is>
       </c>
     </row>
@@ -1015,60 +1145,1081 @@
       </c>
       <c r="C11" s="2" t="inlineStr">
         <is>
-          <t>5,7; 14,24</t>
+          <t>5,2; 11,35</t>
         </is>
       </c>
       <c r="D11" s="2" t="inlineStr">
         <is>
-          <t>4,19; 10,6</t>
+          <t>5,27; 17,08</t>
         </is>
       </c>
       <c r="E11" s="2" t="inlineStr">
         <is>
-          <t>4,07; 8,11</t>
+          <t>4,57; 10,64</t>
         </is>
       </c>
       <c r="F11" s="2" t="inlineStr">
         <is>
-          <t>5,77; 10,58</t>
+          <t>2,27; 6,37</t>
         </is>
       </c>
       <c r="G11" s="2" t="inlineStr">
         <is>
-          <t>2,7; 5,93</t>
+          <t>5,43; 10,87</t>
         </is>
       </c>
       <c r="H11" s="2" t="inlineStr">
         <is>
-          <t>3,16; 6,23</t>
+          <t>2,71; 6,9</t>
         </is>
       </c>
       <c r="I11" s="2" t="inlineStr">
         <is>
-          <t>6,35; 10,77</t>
+          <t>2,96; 7,23</t>
         </is>
       </c>
       <c r="J11" s="2" t="inlineStr">
         <is>
-          <t>4,02; 7,52</t>
+          <t>3,61; 9,52</t>
         </is>
       </c>
       <c r="K11" s="2" t="inlineStr">
         <is>
-          <t>4,02; 6,62</t>
+          <t>5,82; 10,17</t>
+        </is>
+      </c>
+      <c r="L11" s="2" t="inlineStr">
+        <is>
+          <t>4,58; 10,21</t>
+        </is>
+      </c>
+      <c r="M11" s="2" t="inlineStr">
+        <is>
+          <t>4,11; 7,88</t>
+        </is>
+      </c>
+      <c r="N11" s="2" t="inlineStr">
+        <is>
+          <t>3,45; 7,15</t>
+        </is>
+      </c>
+    </row>
+    <row r="12">
+      <c r="A12" t="inlineStr">
+        <is>
+          <t>Fuente: Encuesta Sanitaria y Social de Andalucía (Panel 1 en Medición 4)</t>
         </is>
       </c>
     </row>
   </sheetData>
   <mergeCells count="8">
-    <mergeCell ref="C1:E1"/>
     <mergeCell ref="A8:A9"/>
     <mergeCell ref="A4:A5"/>
-    <mergeCell ref="F1:H1"/>
-    <mergeCell ref="I1:K1"/>
+    <mergeCell ref="A10:A11"/>
     <mergeCell ref="A1:B2"/>
+    <mergeCell ref="C1:F1"/>
+    <mergeCell ref="G1:J1"/>
     <mergeCell ref="A6:A7"/>
-    <mergeCell ref="A10:A11"/>
+    <mergeCell ref="K1:N1"/>
+  </mergeCells>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:N16"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <pane xSplit="2" ySplit="3" topLeftCell="C4" activePane="bottomRight" state="frozen"/>
+      <selection pane="topRight"/>
+      <selection pane="bottomLeft"/>
+      <selection pane="bottomRight" activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <cols>
+    <col width="14" customWidth="1" min="1" max="1"/>
+    <col width="14" customWidth="1" min="2" max="2"/>
+    <col width="14" customWidth="1" min="3" max="3"/>
+    <col width="14" customWidth="1" min="4" max="4"/>
+    <col width="14" customWidth="1" min="5" max="5"/>
+    <col width="14" customWidth="1" min="6" max="6"/>
+    <col width="14" customWidth="1" min="7" max="7"/>
+    <col width="14" customWidth="1" min="8" max="8"/>
+    <col width="14" customWidth="1" min="9" max="9"/>
+    <col width="14" customWidth="1" min="10" max="10"/>
+    <col width="14" customWidth="1" min="11" max="11"/>
+    <col width="14" customWidth="1" min="12" max="12"/>
+    <col width="14" customWidth="1" min="13" max="13"/>
+    <col width="14" customWidth="1" min="14" max="14"/>
+  </cols>
+  <sheetData>
+    <row r="1">
+      <c r="A1" s="1" t="inlineStr">
+        <is>
+          <t>Población que recibe menos o muchos menos consejos útiles de los que desea cuando le ocurre algún acontecimiento importante en su vida (tasa de respuesta: 99,2%)</t>
+        </is>
+      </c>
+      <c r="B1" s="2" t="n"/>
+      <c r="C1" s="3" t="inlineStr">
+        <is>
+          <t>Hombre</t>
+        </is>
+      </c>
+      <c r="D1" s="3" t="n"/>
+      <c r="E1" s="3" t="n"/>
+      <c r="F1" s="3" t="n"/>
+      <c r="G1" s="3" t="inlineStr">
+        <is>
+          <t>Mujer</t>
+        </is>
+      </c>
+      <c r="H1" s="3" t="n"/>
+      <c r="I1" s="3" t="n"/>
+      <c r="J1" s="3" t="n"/>
+      <c r="K1" s="3" t="inlineStr">
+        <is>
+          <t>Total</t>
+        </is>
+      </c>
+      <c r="L1" s="3" t="n"/>
+      <c r="M1" s="3" t="n"/>
+      <c r="N1" s="3" t="n"/>
+    </row>
+    <row r="2">
+      <c r="A2" s="4" t="n"/>
+      <c r="B2" s="2" t="n"/>
+      <c r="C2" s="3" t="inlineStr">
+        <is>
+          <t>M2</t>
+        </is>
+      </c>
+      <c r="D2" s="3" t="inlineStr">
+        <is>
+          <t>M3</t>
+        </is>
+      </c>
+      <c r="E2" s="3" t="inlineStr">
+        <is>
+          <t>M4</t>
+        </is>
+      </c>
+      <c r="F2" s="3" t="inlineStr">
+        <is>
+          <t>M5</t>
+        </is>
+      </c>
+      <c r="G2" s="3" t="inlineStr">
+        <is>
+          <t>M2</t>
+        </is>
+      </c>
+      <c r="H2" s="3" t="inlineStr">
+        <is>
+          <t>M3</t>
+        </is>
+      </c>
+      <c r="I2" s="3" t="inlineStr">
+        <is>
+          <t>M4</t>
+        </is>
+      </c>
+      <c r="J2" s="3" t="inlineStr">
+        <is>
+          <t>M5</t>
+        </is>
+      </c>
+      <c r="K2" s="3" t="inlineStr">
+        <is>
+          <t>M2</t>
+        </is>
+      </c>
+      <c r="L2" s="3" t="inlineStr">
+        <is>
+          <t>M3</t>
+        </is>
+      </c>
+      <c r="M2" s="3" t="inlineStr">
+        <is>
+          <t>M4</t>
+        </is>
+      </c>
+      <c r="N2" s="3" t="inlineStr">
+        <is>
+          <t>M5</t>
+        </is>
+      </c>
+    </row>
+    <row r="3" hidden="1">
+      <c r="A3" s="4" t="n"/>
+      <c r="B3" s="2" t="n"/>
+      <c r="C3" s="2" t="n"/>
+      <c r="D3" s="2" t="n"/>
+      <c r="E3" s="2" t="n"/>
+      <c r="F3" s="2" t="n"/>
+      <c r="G3" s="2" t="n"/>
+      <c r="H3" s="2" t="n"/>
+      <c r="I3" s="2" t="n"/>
+      <c r="J3" s="2" t="n"/>
+      <c r="K3" s="2" t="n"/>
+      <c r="L3" s="2" t="n"/>
+      <c r="M3" s="2" t="n"/>
+      <c r="N3" s="2" t="n"/>
+    </row>
+    <row r="4">
+      <c r="A4" s="1" t="inlineStr">
+        <is>
+          <t>Urbano</t>
+        </is>
+      </c>
+      <c r="B4" s="3" t="inlineStr">
+        <is>
+          <t>n</t>
+        </is>
+      </c>
+      <c r="C4" s="2" t="inlineStr">
+        <is>
+          <t>12.0</t>
+        </is>
+      </c>
+      <c r="D4" s="2" t="inlineStr">
+        <is>
+          <t>16.0</t>
+        </is>
+      </c>
+      <c r="E4" s="2" t="inlineStr">
+        <is>
+          <t>9.0</t>
+        </is>
+      </c>
+      <c r="F4" s="2" t="inlineStr">
+        <is>
+          <t>7.0</t>
+        </is>
+      </c>
+      <c r="G4" s="2" t="inlineStr">
+        <is>
+          <t>16.0</t>
+        </is>
+      </c>
+      <c r="H4" s="2" t="inlineStr">
+        <is>
+          <t>10.0</t>
+        </is>
+      </c>
+      <c r="I4" s="2" t="inlineStr">
+        <is>
+          <t>8.0</t>
+        </is>
+      </c>
+      <c r="J4" s="2" t="inlineStr">
+        <is>
+          <t>9.0</t>
+        </is>
+      </c>
+      <c r="K4" s="2" t="inlineStr">
+        <is>
+          <t>28.0</t>
+        </is>
+      </c>
+      <c r="L4" s="2" t="inlineStr">
+        <is>
+          <t>26.0</t>
+        </is>
+      </c>
+      <c r="M4" s="2" t="inlineStr">
+        <is>
+          <t>17.0</t>
+        </is>
+      </c>
+      <c r="N4" s="2" t="inlineStr">
+        <is>
+          <t>16.0</t>
+        </is>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" s="1" t="n"/>
+      <c r="B5" s="3" t="inlineStr">
+        <is>
+          <t>N (estimada)</t>
+        </is>
+      </c>
+      <c r="C5" s="2" t="inlineStr">
+        <is>
+          <t>30386</t>
+        </is>
+      </c>
+      <c r="D5" s="2" t="inlineStr">
+        <is>
+          <t>33692</t>
+        </is>
+      </c>
+      <c r="E5" s="2" t="inlineStr">
+        <is>
+          <t>18302</t>
+        </is>
+      </c>
+      <c r="F5" s="2" t="inlineStr">
+        <is>
+          <t>17722</t>
+        </is>
+      </c>
+      <c r="G5" s="2" t="inlineStr">
+        <is>
+          <t>39166</t>
+        </is>
+      </c>
+      <c r="H5" s="2" t="inlineStr">
+        <is>
+          <t>20960</t>
+        </is>
+      </c>
+      <c r="I5" s="2" t="inlineStr">
+        <is>
+          <t>14865</t>
+        </is>
+      </c>
+      <c r="J5" s="2" t="inlineStr">
+        <is>
+          <t>27965</t>
+        </is>
+      </c>
+      <c r="K5" s="2" t="inlineStr">
+        <is>
+          <t>69551</t>
+        </is>
+      </c>
+      <c r="L5" s="2" t="inlineStr">
+        <is>
+          <t>54653</t>
+        </is>
+      </c>
+      <c r="M5" s="2" t="inlineStr">
+        <is>
+          <t>33167</t>
+        </is>
+      </c>
+      <c r="N5" s="2" t="inlineStr">
+        <is>
+          <t>45687</t>
+        </is>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" s="1" t="n"/>
+      <c r="B6" s="3" t="inlineStr">
+        <is>
+          <t>IC 95%</t>
+        </is>
+      </c>
+      <c r="C6" s="2" t="inlineStr">
+        <is>
+          <t>16006; 51440</t>
+        </is>
+      </c>
+      <c r="D6" s="2" t="inlineStr">
+        <is>
+          <t>20424; 53505</t>
+        </is>
+      </c>
+      <c r="E6" s="2" t="inlineStr">
+        <is>
+          <t>8594; 34467</t>
+        </is>
+      </c>
+      <c r="F6" s="2" t="inlineStr">
+        <is>
+          <t>7019; 36243</t>
+        </is>
+      </c>
+      <c r="G6" s="2" t="inlineStr">
+        <is>
+          <t>23251; 62020</t>
+        </is>
+      </c>
+      <c r="H6" s="2" t="inlineStr">
+        <is>
+          <t>11127; 37352</t>
+        </is>
+      </c>
+      <c r="I6" s="2" t="inlineStr">
+        <is>
+          <t>6462; 28034</t>
+        </is>
+      </c>
+      <c r="J6" s="2" t="inlineStr">
+        <is>
+          <t>12949; 58379</t>
+        </is>
+      </c>
+      <c r="K6" s="2" t="inlineStr">
+        <is>
+          <t>45627; 97573</t>
+        </is>
+      </c>
+      <c r="L6" s="2" t="inlineStr">
+        <is>
+          <t>36423; 76737</t>
+        </is>
+      </c>
+      <c r="M6" s="2" t="inlineStr">
+        <is>
+          <t>18984; 52060</t>
+        </is>
+      </c>
+      <c r="N6" s="2" t="inlineStr">
+        <is>
+          <t>26892; 77936</t>
+        </is>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" s="1" t="inlineStr">
+        <is>
+          <t>Intermedio</t>
+        </is>
+      </c>
+      <c r="B7" s="3" t="inlineStr">
+        <is>
+          <t>n</t>
+        </is>
+      </c>
+      <c r="C7" s="2" t="inlineStr">
+        <is>
+          <t>12.0</t>
+        </is>
+      </c>
+      <c r="D7" s="2" t="inlineStr">
+        <is>
+          <t>6.0</t>
+        </is>
+      </c>
+      <c r="E7" s="2" t="inlineStr">
+        <is>
+          <t>11.0</t>
+        </is>
+      </c>
+      <c r="F7" s="2" t="inlineStr">
+        <is>
+          <t>7.0</t>
+        </is>
+      </c>
+      <c r="G7" s="2" t="inlineStr">
+        <is>
+          <t>13.0</t>
+        </is>
+      </c>
+      <c r="H7" s="2" t="inlineStr">
+        <is>
+          <t>6.0</t>
+        </is>
+      </c>
+      <c r="I7" s="2" t="inlineStr">
+        <is>
+          <t>10.0</t>
+        </is>
+      </c>
+      <c r="J7" s="2" t="inlineStr">
+        <is>
+          <t>9.0</t>
+        </is>
+      </c>
+      <c r="K7" s="2" t="inlineStr">
+        <is>
+          <t>25.0</t>
+        </is>
+      </c>
+      <c r="L7" s="2" t="inlineStr">
+        <is>
+          <t>12.0</t>
+        </is>
+      </c>
+      <c r="M7" s="2" t="inlineStr">
+        <is>
+          <t>21.0</t>
+        </is>
+      </c>
+      <c r="N7" s="2" t="inlineStr">
+        <is>
+          <t>16.0</t>
+        </is>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" s="1" t="n"/>
+      <c r="B8" s="3" t="inlineStr">
+        <is>
+          <t>N (estimada)</t>
+        </is>
+      </c>
+      <c r="C8" s="2" t="inlineStr">
+        <is>
+          <t>30630</t>
+        </is>
+      </c>
+      <c r="D8" s="2" t="inlineStr">
+        <is>
+          <t>13624</t>
+        </is>
+      </c>
+      <c r="E8" s="2" t="inlineStr">
+        <is>
+          <t>24318</t>
+        </is>
+      </c>
+      <c r="F8" s="2" t="inlineStr">
+        <is>
+          <t>19492</t>
+        </is>
+      </c>
+      <c r="G8" s="2" t="inlineStr">
+        <is>
+          <t>36112</t>
+        </is>
+      </c>
+      <c r="H8" s="2" t="inlineStr">
+        <is>
+          <t>10945</t>
+        </is>
+      </c>
+      <c r="I8" s="2" t="inlineStr">
+        <is>
+          <t>19505</t>
+        </is>
+      </c>
+      <c r="J8" s="2" t="inlineStr">
+        <is>
+          <t>27220</t>
+        </is>
+      </c>
+      <c r="K8" s="2" t="inlineStr">
+        <is>
+          <t>66742</t>
+        </is>
+      </c>
+      <c r="L8" s="2" t="inlineStr">
+        <is>
+          <t>24570</t>
+        </is>
+      </c>
+      <c r="M8" s="2" t="inlineStr">
+        <is>
+          <t>43824</t>
+        </is>
+      </c>
+      <c r="N8" s="2" t="inlineStr">
+        <is>
+          <t>46713</t>
+        </is>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" s="1" t="n"/>
+      <c r="B9" s="3" t="inlineStr">
+        <is>
+          <t>IC 95%</t>
+        </is>
+      </c>
+      <c r="C9" s="2" t="inlineStr">
+        <is>
+          <t>16856; 51129</t>
+        </is>
+      </c>
+      <c r="D9" s="2" t="inlineStr">
+        <is>
+          <t>4774; 27966</t>
+        </is>
+      </c>
+      <c r="E9" s="2" t="inlineStr">
+        <is>
+          <t>12661; 43846</t>
+        </is>
+      </c>
+      <c r="F9" s="2" t="inlineStr">
+        <is>
+          <t>7733; 40410</t>
+        </is>
+      </c>
+      <c r="G9" s="2" t="inlineStr">
+        <is>
+          <t>19609; 59437</t>
+        </is>
+      </c>
+      <c r="H9" s="2" t="inlineStr">
+        <is>
+          <t>3690; 22341</t>
+        </is>
+      </c>
+      <c r="I9" s="2" t="inlineStr">
+        <is>
+          <t>8781; 33771</t>
+        </is>
+      </c>
+      <c r="J9" s="2" t="inlineStr">
+        <is>
+          <t>12569; 53943</t>
+        </is>
+      </c>
+      <c r="K9" s="2" t="inlineStr">
+        <is>
+          <t>43709; 96368</t>
+        </is>
+      </c>
+      <c r="L9" s="2" t="inlineStr">
+        <is>
+          <t>13471; 41444</t>
+        </is>
+      </c>
+      <c r="M9" s="2" t="inlineStr">
+        <is>
+          <t>25842; 65023</t>
+        </is>
+      </c>
+      <c r="N9" s="2" t="inlineStr">
+        <is>
+          <t>26016; 78309</t>
+        </is>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" s="1" t="inlineStr">
+        <is>
+          <t>Rural</t>
+        </is>
+      </c>
+      <c r="B10" s="3" t="inlineStr">
+        <is>
+          <t>n</t>
+        </is>
+      </c>
+      <c r="C10" s="2" t="inlineStr">
+        <is>
+          <t>2.0</t>
+        </is>
+      </c>
+      <c r="D10" s="2" t="inlineStr">
+        <is>
+          <t>1.0</t>
+        </is>
+      </c>
+      <c r="E10" s="2" t="inlineStr">
+        <is>
+          <t>3.0</t>
+        </is>
+      </c>
+      <c r="F10" s="2" t="inlineStr">
+        <is>
+          <t>1.0</t>
+        </is>
+      </c>
+      <c r="G10" s="2" t="inlineStr">
+        <is>
+          <t>1.0</t>
+        </is>
+      </c>
+      <c r="H10" s="2" t="inlineStr">
+        <is>
+          <t>2.0</t>
+        </is>
+      </c>
+      <c r="I10" s="2" t="inlineStr">
+        <is>
+          <t>2.0</t>
+        </is>
+      </c>
+      <c r="J10" s="2" t="inlineStr">
+        <is>
+          <t>2.0</t>
+        </is>
+      </c>
+      <c r="K10" s="2" t="inlineStr">
+        <is>
+          <t>3.0</t>
+        </is>
+      </c>
+      <c r="L10" s="2" t="inlineStr">
+        <is>
+          <t>3.0</t>
+        </is>
+      </c>
+      <c r="M10" s="2" t="inlineStr">
+        <is>
+          <t>5.0</t>
+        </is>
+      </c>
+      <c r="N10" s="2" t="inlineStr">
+        <is>
+          <t>3.0</t>
+        </is>
+      </c>
+    </row>
+    <row r="11">
+      <c r="A11" s="1" t="n"/>
+      <c r="B11" s="3" t="inlineStr">
+        <is>
+          <t>N (estimada)</t>
+        </is>
+      </c>
+      <c r="C11" s="2" t="inlineStr">
+        <is>
+          <t>7254</t>
+        </is>
+      </c>
+      <c r="D11" s="2" t="inlineStr">
+        <is>
+          <t>16986</t>
+        </is>
+      </c>
+      <c r="E11" s="2" t="inlineStr">
+        <is>
+          <t>11045</t>
+        </is>
+      </c>
+      <c r="F11" s="2" t="inlineStr">
+        <is>
+          <t>3249</t>
+        </is>
+      </c>
+      <c r="G11" s="2" t="inlineStr">
+        <is>
+          <t>2357</t>
+        </is>
+      </c>
+      <c r="H11" s="2" t="inlineStr">
+        <is>
+          <t>5223</t>
+        </is>
+      </c>
+      <c r="I11" s="2" t="inlineStr">
+        <is>
+          <t>5293</t>
+        </is>
+      </c>
+      <c r="J11" s="2" t="inlineStr">
+        <is>
+          <t>9350</t>
+        </is>
+      </c>
+      <c r="K11" s="2" t="inlineStr">
+        <is>
+          <t>9611</t>
+        </is>
+      </c>
+      <c r="L11" s="2" t="inlineStr">
+        <is>
+          <t>22209</t>
+        </is>
+      </c>
+      <c r="M11" s="2" t="inlineStr">
+        <is>
+          <t>16339</t>
+        </is>
+      </c>
+      <c r="N11" s="2" t="inlineStr">
+        <is>
+          <t>12598</t>
+        </is>
+      </c>
+    </row>
+    <row r="12">
+      <c r="A12" s="1" t="n"/>
+      <c r="B12" s="3" t="inlineStr">
+        <is>
+          <t>IC 95%</t>
+        </is>
+      </c>
+      <c r="C12" s="2" t="inlineStr">
+        <is>
+          <t>0; 23327</t>
+        </is>
+      </c>
+      <c r="D12" s="2" t="inlineStr">
+        <is>
+          <t>0; 50162</t>
+        </is>
+      </c>
+      <c r="E12" s="2" t="inlineStr">
+        <is>
+          <t>1842; 34806</t>
+        </is>
+      </c>
+      <c r="F12" s="2" t="inlineStr">
+        <is>
+          <t>0; 17079</t>
+        </is>
+      </c>
+      <c r="G12" s="2" t="inlineStr">
+        <is>
+          <t>0; 12558</t>
+        </is>
+      </c>
+      <c r="H12" s="2" t="inlineStr">
+        <is>
+          <t>0; 18140</t>
+        </is>
+      </c>
+      <c r="I12" s="2" t="inlineStr">
+        <is>
+          <t>0; 16619</t>
+        </is>
+      </c>
+      <c r="J12" s="2" t="inlineStr">
+        <is>
+          <t>0; 29918</t>
+        </is>
+      </c>
+      <c r="K12" s="2" t="inlineStr">
+        <is>
+          <t>2363; 27971</t>
+        </is>
+      </c>
+      <c r="L12" s="2" t="inlineStr">
+        <is>
+          <t>3435; 64422</t>
+        </is>
+      </c>
+      <c r="M12" s="2" t="inlineStr">
+        <is>
+          <t>5337; 38500</t>
+        </is>
+      </c>
+      <c r="N12" s="2" t="inlineStr">
+        <is>
+          <t>3175; 36262</t>
+        </is>
+      </c>
+    </row>
+    <row r="13">
+      <c r="A13" s="1" t="inlineStr">
+        <is>
+          <t>Total</t>
+        </is>
+      </c>
+      <c r="B13" s="3" t="inlineStr">
+        <is>
+          <t>n</t>
+        </is>
+      </c>
+      <c r="C13" s="2" t="inlineStr">
+        <is>
+          <t>26.0</t>
+        </is>
+      </c>
+      <c r="D13" s="2" t="inlineStr">
+        <is>
+          <t>23.0</t>
+        </is>
+      </c>
+      <c r="E13" s="2" t="inlineStr">
+        <is>
+          <t>23.0</t>
+        </is>
+      </c>
+      <c r="F13" s="2" t="inlineStr">
+        <is>
+          <t>15.0</t>
+        </is>
+      </c>
+      <c r="G13" s="2" t="inlineStr">
+        <is>
+          <t>30.0</t>
+        </is>
+      </c>
+      <c r="H13" s="2" t="inlineStr">
+        <is>
+          <t>18.0</t>
+        </is>
+      </c>
+      <c r="I13" s="2" t="inlineStr">
+        <is>
+          <t>20.0</t>
+        </is>
+      </c>
+      <c r="J13" s="2" t="inlineStr">
+        <is>
+          <t>20.0</t>
+        </is>
+      </c>
+      <c r="K13" s="2" t="inlineStr">
+        <is>
+          <t>56.0</t>
+        </is>
+      </c>
+      <c r="L13" s="2" t="inlineStr">
+        <is>
+          <t>41.0</t>
+        </is>
+      </c>
+      <c r="M13" s="2" t="inlineStr">
+        <is>
+          <t>43.0</t>
+        </is>
+      </c>
+      <c r="N13" s="2" t="inlineStr">
+        <is>
+          <t>35.0</t>
+        </is>
+      </c>
+    </row>
+    <row r="14">
+      <c r="A14" s="1" t="n"/>
+      <c r="B14" s="3" t="inlineStr">
+        <is>
+          <t>N (estimada)</t>
+        </is>
+      </c>
+      <c r="C14" s="2" t="inlineStr">
+        <is>
+          <t>68270</t>
+        </is>
+      </c>
+      <c r="D14" s="2" t="inlineStr">
+        <is>
+          <t>64303</t>
+        </is>
+      </c>
+      <c r="E14" s="2" t="inlineStr">
+        <is>
+          <t>53665</t>
+        </is>
+      </c>
+      <c r="F14" s="2" t="inlineStr">
+        <is>
+          <t>40463</t>
+        </is>
+      </c>
+      <c r="G14" s="2" t="inlineStr">
+        <is>
+          <t>77634</t>
+        </is>
+      </c>
+      <c r="H14" s="2" t="inlineStr">
+        <is>
+          <t>37128</t>
+        </is>
+      </c>
+      <c r="I14" s="2" t="inlineStr">
+        <is>
+          <t>39664</t>
+        </is>
+      </c>
+      <c r="J14" s="2" t="inlineStr">
+        <is>
+          <t>64535</t>
+        </is>
+      </c>
+      <c r="K14" s="2" t="inlineStr">
+        <is>
+          <t>145904</t>
+        </is>
+      </c>
+      <c r="L14" s="2" t="inlineStr">
+        <is>
+          <t>101431</t>
+        </is>
+      </c>
+      <c r="M14" s="2" t="inlineStr">
+        <is>
+          <t>93329</t>
+        </is>
+      </c>
+      <c r="N14" s="2" t="inlineStr">
+        <is>
+          <t>104998</t>
+        </is>
+      </c>
+    </row>
+    <row r="15">
+      <c r="A15" s="1" t="n"/>
+      <c r="B15" s="3" t="inlineStr">
+        <is>
+          <t>IC 95%</t>
+        </is>
+      </c>
+      <c r="C15" s="2" t="inlineStr">
+        <is>
+          <t>45850; 100021</t>
+        </is>
+      </c>
+      <c r="D15" s="2" t="inlineStr">
+        <is>
+          <t>39983; 129501</t>
+        </is>
+      </c>
+      <c r="E15" s="2" t="inlineStr">
+        <is>
+          <t>35758; 83214</t>
+        </is>
+      </c>
+      <c r="F15" s="2" t="inlineStr">
+        <is>
+          <t>23218; 65160</t>
+        </is>
+      </c>
+      <c r="G15" s="2" t="inlineStr">
+        <is>
+          <t>55277; 110737</t>
+        </is>
+      </c>
+      <c r="H15" s="2" t="inlineStr">
+        <is>
+          <t>22463; 57219</t>
+        </is>
+      </c>
+      <c r="I15" s="2" t="inlineStr">
+        <is>
+          <t>24277; 59284</t>
+        </is>
+      </c>
+      <c r="J15" s="2" t="inlineStr">
+        <is>
+          <t>39203; 103313</t>
+        </is>
+      </c>
+      <c r="K15" s="2" t="inlineStr">
+        <is>
+          <t>110471; 193090</t>
+        </is>
+      </c>
+      <c r="L15" s="2" t="inlineStr">
+        <is>
+          <t>72613; 162096</t>
+        </is>
+      </c>
+      <c r="M15" s="2" t="inlineStr">
+        <is>
+          <t>65861; 126159</t>
+        </is>
+      </c>
+      <c r="N15" s="2" t="inlineStr">
+        <is>
+          <t>72793; 150815</t>
+        </is>
+      </c>
+    </row>
+    <row r="16">
+      <c r="A16" t="inlineStr">
+        <is>
+          <t>Fuente: Encuesta Sanitaria y Social de Andalucía (Panel 1 en Medición 4)</t>
+        </is>
+      </c>
+    </row>
+  </sheetData>
+  <mergeCells count="8">
+    <mergeCell ref="A7:A9"/>
+    <mergeCell ref="A4:A6"/>
+    <mergeCell ref="A10:A12"/>
+    <mergeCell ref="A1:B2"/>
+    <mergeCell ref="C1:F1"/>
+    <mergeCell ref="G1:J1"/>
+    <mergeCell ref="K1:N1"/>
+    <mergeCell ref="A13:A15"/>
   </mergeCells>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>
